--- a/biology/Botanique/Micranthes_stellaris/Micranthes_stellaris.xlsx
+++ b/biology/Botanique/Micranthes_stellaris/Micranthes_stellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Micranthes stellaris, la Saxifrage étoilée ou Saxifrage en étoile, est une espèce de plantes à fleurs de la famille des Saxifragaceae, originaire du Canada, du Groenland et du Nord de l'Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces et variétés selon GBIF       (28 juin 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés selon GBIF       (28 juin 2021) :
 Micranthes stellaris subsp. hispidula (Rochel) Gornall
 Micranthes stellaris subsp. robusta (Engl.) L.Sáez &amp; Aymerich
 Micranthes stellaris subsp. stellaris
@@ -580,11 +596,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été initialement classée dans le genre Saxifraga sous le basionyme Saxifraga stellaris, par le naturaliste suédois Carl von Linné en 1753. Elle est déplacée en 2005 dans le genre Micranthes sous le nom correct Micranthes stellaris, par les botanistes italiens Gabriele Galasso, Enrico Augusto Banfi et Adriano Soldano[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Saxifrage étoilée[1],[3],[4] » ou « Saxifrage en étoile[3] ».
-Micranthes stellaris a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été initialement classée dans le genre Saxifraga sous le basionyme Saxifraga stellaris, par le naturaliste suédois Carl von Linné en 1753. Elle est déplacée en 2005 dans le genre Micranthes sous le nom correct Micranthes stellaris, par les botanistes italiens Gabriele Galasso, Enrico Augusto Banfi et Adriano Soldano.
+Ce taxon porte en français les noms vernaculaires ou normalisés « Saxifrage étoilée » ou « Saxifrage en étoile ».
+Micranthes stellaris a pour synonymes :
 Hydatica foliolosa Raf.
 Micranthes stellaris var. stellaris
 Saxifraga gredensis Riv.Mateos, 1925
